--- a/HV9861/calculation.xlsx
+++ b/HV9861/calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Eagle_7\HV9861\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CABEB1-6332-4ED6-B0CA-82176ABC94FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF6364B-126D-40F1-A848-DE14A2DF053C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94F6BE80-2247-46FA-BDC7-8B726238C801}"/>
+    <workbookView xWindow="20280" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{94F6BE80-2247-46FA-BDC7-8B726238C801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
